--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt7a-Fzd1.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N2">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O2">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P2">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q2">
-        <v>0.322950553412</v>
+        <v>0.3659230173152223</v>
       </c>
       <c r="R2">
-        <v>2.906554980708</v>
+        <v>3.293307155837</v>
       </c>
       <c r="S2">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="T2">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,25 +623,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P3">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q3">
         <v>10.75836643281411</v>
       </c>
       <c r="R3">
-        <v>96.825297895327</v>
+        <v>96.82529789532701</v>
       </c>
       <c r="S3">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="T3">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N4">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O4">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P4">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q4">
-        <v>0.2622041950068889</v>
+        <v>0.1526099974853334</v>
       </c>
       <c r="R4">
-        <v>2.359837755062</v>
+        <v>1.373489977368</v>
       </c>
       <c r="S4">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="T4">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N5">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O5">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P5">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q5">
-        <v>1.873780002571834</v>
+        <v>0.9442658343138335</v>
       </c>
       <c r="R5">
-        <v>11.242680015431</v>
+        <v>5.665595005883</v>
       </c>
       <c r="S5">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="T5">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N6">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O6">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P6">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q6">
-        <v>0.2283345771874444</v>
+        <v>0.1744894509044445</v>
       </c>
       <c r="R6">
-        <v>2.055011194687</v>
+        <v>1.57040505814</v>
       </c>
       <c r="S6">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="T6">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
     </row>
   </sheetData>
